--- a/biology/Botanique/Glossaire_de_sylviculture/Glossaire_de_sylviculture.xlsx
+++ b/biology/Botanique/Glossaire_de_sylviculture/Glossaire_de_sylviculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -537,7 +549,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abattage : opération consistant à couper un arbre sur pied.
 Accrus : formation forestière obtenu par la colonisation naturelle d'un terrain dont l'utilisation précédente a été abandonnée (landes non boisées, trouées forestière, déprise des terres agricoles...) (voir aussi recru).
@@ -549,7 +563,7 @@
 Arbre : plante ligneuse de plus de sept mètres de haut.
 Arbrisseau : plante ligneuse se ramifiant dès la base et ne dépassant pas 6 à 7 mètres de hauteur.
 Arbuste : plante ligneuse dont la tige n'est pas ramifiée dès la base d'une taille inférieur à 8 mètres.
-Assiette : situation géographique, surface et nature d’une coupe[1]. (V. aussi Etat d’assiette)
+Assiette : situation géographique, surface et nature d’une coupe. (V. aussi Etat d’assiette)
 Aubier : partie jeune de l'arbre, bois non encore formé situé entre le bois dur (duramen) et l'écorce. Ce sont les dernières cellules nées de l'année ; ce n'est encore qu'un bois imparfait qui va durcir et se transformer en bois parfait.</t>
         </is>
       </c>
@@ -578,7 +592,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baliveau : arbre jeune droit et vigoureux, dont on présume qu'il pourra devenir un bel arbre d'avenir, et qu'on réserve (épargne) pour cette raison lors d'une coupe forestière (ou taille de haies dans le cas d'une haie vive ou d'une haie contenant des arbres émergents que l'on souhaite conserver ou traiter par émondage...
 Bille : tronçon découpé dans une grume.
@@ -619,7 +635,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Canopée : étage supérieur de la forêt, en contact direct avec l'atmosphère libre.
 Cépée : ensemble de rejets se développant à partir d'une souche d'arbre.
@@ -632,7 +650,7 @@
 Coupe partielle : système de récolte où une partie seulement des arbres commercialisables sont récoltés.
 Coupe progressive: système sylvicole qui consiste à régénérer le peuplement par une ou plusieurs coupes partielles, suivie d'une coupe finale, libérant la régénération établie sous couvert.
 Coupe rase : système de récolte consistant à abattre l'ensemble des arbres commercialisables dans un secteur donné et à ne laisser aucun couvert forestier important. Ce système n'est généralement utilisé que dans les plantations.
-Coupe réglée : Coupe réalisée conformément au programme prévisionnel des coupes d’un aménagement en forêt publique. Par opposition les coupes non prévue, dérogeant aux prévisions de l’aménagement forestier, sont dites non réglées[2]. (V. aussi Etat d’assiette)
+Coupe réglée : Coupe réalisée conformément au programme prévisionnel des coupes d’un aménagement en forêt publique. Par opposition les coupes non prévue, dérogeant aux prévisions de l’aménagement forestier, sont dites non réglées. (V. aussi Etat d’assiette)
 Couvert : partie de la forêt formée par les houppiers des arbres dominants. On parle aussi de frondaison.
 Cultivar : plante cultivée, nommée, choisie pour ses caractéristiques uniques, qui doit être transmise d'une génération à l'autre par des méthodes appropriées
 Cubage: opération consistant à évaluer le volume du bois (sur pied ou plus généralement au sol après une coupe).</t>
@@ -663,7 +681,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Débardage : opération consistant à transporter des billes du lieu d'abattage au premier dépôt transitoire.
 Déforestation : diminution des surfaces couvertes de forêt.
@@ -671,9 +691,9 @@
 Dégagement : opération sylvicole qui consiste à supprimer tout ou partie de la végétation qui concurrence les sujets faisant l’objet de la culture principale.
 Dendrologie (forestière) : étude et identification des arbres.
 Dépressage : opération sylvicole qui consiste à supprimer un certain nombre de jeunes sujets dans un peuplement très dense et issu de semis.
-Détourage: Il s'agit d'une opération sylvicole permettant de supprimer toutes les tiges concurrentes ou en contact avec une tige objective. Ceci afin de permettre un développement optimal de la tige d'avenir et de laisser la régénération naturelle de celle-ci se développer[3].
+Détourage: Il s'agit d'une opération sylvicole permettant de supprimer toutes les tiges concurrentes ou en contact avec une tige objective. Ceci afin de permettre un développement optimal de la tige d'avenir et de laisser la régénération naturelle de celle-ci se développer.
 Développement durable des forêts : développement des forêts en fonction des besoins actuels sans nuire à leur productivité future, à leur diversité écologique ou à leur capacité de régénération.
-Diamètre d'exploitabilité : diamètre minimal, à 1,3 m du sol, d'un arbre pour être récolté à la coupe finale[4].
+Diamètre d'exploitabilité : diamètre minimal, à 1,3 m du sol, d'un arbre pour être récolté à la coupe finale.
 Duramen : partie interne du tronc, correspondant aux zones d'accroissement les plus anciennement formées, qui ne comportent plus de cellules vivantes. Partie plus dure que l'aubier. Appelé aussi bois de cœur ou bois parfait.</t>
         </is>
       </c>
@@ -702,7 +722,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ébranchage : opération consistant à couper les branches d'un arbre abattu.
 Éclaircie : opération (le plus souvent coupe) pratiquée dans un peuplement forestier non arrivé à maturité, destinée à accélérer l'accroissement du diamètre des arbres restants.
@@ -718,8 +740,8 @@
 Essence dominante : essence la plus répandue et la plus vigoureuse au sein d'une végétation mixte.
 Essence forestière : désigne généralement une espèce d'arbre, mais ce peut être parfois une sous-espèce ou variété qui présente un intérêt en sylviculture et qui a des exigences biologiques ou des emplois particuliers.
 Essence pionnière : première essence qui repousse sur un terrain passé au feu ou rasé après une coupe à blanc. Les pins et le bouleau sont des essences pionnières.
-Étage : espace occupé par les houppiers des arbres d’une même tranche de hauteur bien différenciée ; pour un peuplement régulier on distingue un étage principal (houppiers des arbres dominants, co-dominants et dominés), du sous-étage des autres essences d'arbres et d'arbustes[5].
-État d'assiette : liste des parcelles ou de parties de parcelles prévues pour être martelées une année données, avec indication de la surface à parcourir et du volume à exploiter et de la nature des coupes à réaliser[6] (V. aussi Assiette, Coupe réglée).
+Étage : espace occupé par les houppiers des arbres d’une même tranche de hauteur bien différenciée ; pour un peuplement régulier on distingue un étage principal (houppiers des arbres dominants, co-dominants et dominés), du sous-étage des autres essences d'arbres et d'arbustes.
+État d'assiette : liste des parcelles ou de parties de parcelles prévues pour être martelées une année données, avec indication de la surface à parcourir et du volume à exploiter et de la nature des coupes à réaliser (V. aussi Assiette, Coupe réglée).
 Exploitation forestière : processus de production s’appliquant à un ensemble d’arbres en vue de leur acheminement vers un site de valorisation.</t>
         </is>
       </c>
@@ -748,7 +770,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Feu de forêt : incendie dans un massif boisé.
 Feuillu : arbre produisant des feuilles (par opposition au conifère ou résineux).
@@ -793,7 +817,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Garde forestier : fonctionnaire chargé de patrouiller dans la forêt et autres endroits dans la nature, dans le but de protéger la faune et la flore.
 Gaulis : jeune peuplement de gaules (5 cm de diamètre et de 3 à 6 m de hauteur).
@@ -826,7 +852,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Habitat : désigne l'eau, la nourriture, la couverture et l'abri formant l'environnement essentiel dont les organismes et les espèces vivantes ont besoin pour survivre.
 Hache : outil formé d'une lame de métal attachée à un manche de bois utilisé pour couper du bois.
@@ -859,7 +887,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Inéquienne : contraire de équienne.
 Insecte forestier : insecte vivant en forêt.
@@ -892,11 +922,13 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Laie : voie étroite tracée dans une forêt ou une futaie[7].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Laie : voie étroite tracée dans une forêt ou une futaie.
 Lande : étendue non cultivée de terrain sablonneux, comportant une végétation basse.
-Layon forestier : petite laie[8], piste forestière plus étroite et sinueuse qu'une laie.
+Layon forestier : petite laie, piste forestière plus étroite et sinueuse qu'une laie.
 Lichen : algue et champignon poussant en association symbiotique sur des surfaces solides comme des rochers ou l’écorce d’arbre.
 Lignine : biopolymère que l'on trouve principalement dans les parois pecto-cellulosiques de certaines cellules végétales.
 Litière organique : couche naturelle de débris organiques, de feuilles, de brindilles et d'écorces qui se décompose sur le sol.</t>
@@ -927,7 +959,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Martelage : opération qui consiste à marquer les arbres qui seront coupés ou laissés sur pied. On utilise généralement des rubans de plastique, une entaille faite au marteau forestier ou des marques de peinture sur le tronc des arbres.
 Maquis : végétation fermée et de faible hauteur qui s'étend un sol granitique.
@@ -959,7 +993,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Nœud : point d'intersection d'une feuille sur le rameau, ou d'un rameau sur une branche ou d'une branche sur le tronc, dont on retrouve la marque dans le bois du tronc, correspondant à l'empreinte laissée par la chute de la feuille, du rameau ou de la branche.
 Niche écologique : position occupée par un organisme, une population ou plus généralement une espèce dans un écosystème. C'est l'environnement unique servant à assurer l'existence d'un organisme ou d'une espèce.</t>
@@ -991,6 +1027,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,7 +1054,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Plantation forestière : établissement de peuplements en semant ou en plantant. Les plantations sont établies soit sur des terres sans couvert forestier (afforestation), sur les sols forestiers où le couvert forestier a été supprimé par des coupes rases (reboisement) ou dans des régions ayant un couvert forestier (plantation d'enrichissement).
 Parcelle : pièce de terrain d’étendue variable et appartenant à la même personne.
@@ -1024,12 +1064,12 @@
 Perchis : peuplement d'arbres dont on peut tirer des perches (diamètre de 10 à 30 cm).
 Peuplement : groupe d'arbres que distingue sa composition, son âge, sa qualité.
 Peuplement mixte : peuplement constitué de gymnospermes (résineux) et d'angiospermes (feuillus) fortement mêlés.
-Peuplement pur : se dit d'un peuplement constitué majoritairement d'une seule essence[9]. À l'opposé le peuplement est dit « mélangé » avec au moins deux essences.
+Peuplement pur : se dit d'un peuplement constitué majoritairement d'une seule essence. À l'opposé le peuplement est dit « mélangé » avec au moins deux essences.
 Plantules : jeune pousse de plante ne comportant que quelques feuilles.
-Place de dépôt : emplacement aménagé pour stocker le bois façonné en forêt[10].
+Place de dépôt : emplacement aménagé pour stocker le bois façonné en forêt.
 Plan d’aménagement : plan détaillé à long terme visant une zone forestière. Il contient un inventaire et d’autres données sur les ressources.
 Population : ensemble des individus de même espèce qui vivent dans une zone géographique donnée, en un moment particulier.
-Productivité : production en général de bois (volume en mètre-cube) par unité de surface (hectare) et unité de temps (année) soit en définitive en m3/ha/an[11].</t>
+Productivité : production en général de bois (volume en mètre-cube) par unité de surface (hectare) et unité de temps (année) soit en définitive en m3/ha/an.</t>
         </is>
       </c>
     </row>
@@ -1057,13 +1097,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Racine : organe souterrain d'une plante servant à la fixer au sol et à y puiser l'eau et les éléments nutritifs nécessaires à son développement.
 Ravageur : organisme capable de causer des dommages. Les ravageurs forestiers incluent des insectes, des maladies des arbres et des champignons nuisibles.
 Reboisement : opération qui consiste à restaurer ou créer des zones boisées ou des forêts, typiquement après coupe rase ou tempête.
 Recépage : action qui consiste à couper un arbre près du sol pour permettre la repousse des rejets.
-Récolement : opération de contrôle, dans une coupe vendue sur pied, visant à vérifier que les arbres exploités faisaient bien partie de la vente, par le repérage de l’empreinte du marteau forestier sur leur souche[12].
+Récolement : opération de contrôle, dans une coupe vendue sur pied, visant à vérifier que les arbres exploités faisaient bien partie de la vente, par le repérage de l’empreinte du marteau forestier sur leur souche.
 Recrus :  formations secondaires qui se développent après l’exploitation partielle ou totale des forêts. Ils comportent une forte proportion de rejets et aussi des pieds francs de la forêt exploitée (voir aussi accrus).
 Régénération : croissance des jeunes arbres, soit naturelle, soit stimulée artificiellement. La régénération naturelle se fait lorsque les arbres dispersent des graines ou par rejets de taillis. Tandis que l'intervention humaine, par la plantation d'arbres, permet la régénération artificielle.
 Rémanents : branches ou bois mort qui restent sur le sol après une exploitation.
@@ -1098,7 +1140,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Sciaphile : désigne un arbre qui peut se développer à l'ombre. Exemples : le hêtre, le chêne sessile, le sapin pectiné.
 Scie : outil destiné à couper le bois ou d'autres types de matériaux, constituée d'une lame dentée et actionnée par divers moyens tels que la main, l'électricité, l'eau, etc.
@@ -1138,11 +1182,13 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Taillis : peuplement forestier caractérisé par des rejets dont la régénération s'obtient par des coupes de rajeunissement.
 Taillis sous futaie : peuplement mixte obtenu par un traitement consistant à effectuer une coupe du taillis à rotation d'une durée fixe et courte, et à épargner quelques brins, puis à effectuer une coupe partielle de la même futaie selon les arbres sélectionnés ou réservés.
-Tire et aire : méthode ancestrale d’exploitation des forêts (taillis, taillis sous futaie et de futaie) pratiquée durant l'Ancien régime ; se réalisant de proche en proche (« à tire ») et par des coupes rases d’égale surface (« et aire »), avec ou sans réserve de baliveaux ; afin d’assurer un revenu constant et régulier, la surface des coupes annuelles était calculée pour être égale au quotient de la surface totale de la forêt par l’âge d’exploitabilité des bois (« révolution ») ; ces coupes étaient assises sur le terrain par un arpentage, les forêts n’étant pas, à cette époque, découpées en parcelles ; cette méthode, ne garantissant pas un renouvellement naturel des peuplements, fut abandonnée en France au début du XIXe siècle pour celle allemande du réensemencement naturel et des éclaircies[13],[14]
+Tire et aire : méthode ancestrale d’exploitation des forêts (taillis, taillis sous futaie et de futaie) pratiquée durant l'Ancien régime ; se réalisant de proche en proche (« à tire ») et par des coupes rases d’égale surface (« et aire »), avec ou sans réserve de baliveaux ; afin d’assurer un revenu constant et régulier, la surface des coupes annuelles était calculée pour être égale au quotient de la surface totale de la forêt par l’âge d’exploitabilité des bois (« révolution ») ; ces coupes étaient assises sur le terrain par un arpentage, les forêts n’étant pas, à cette époque, découpées en parcelles ; cette méthode, ne garantissant pas un renouvellement naturel des peuplements, fut abandonnée en France au début du XIXe siècle pour celle allemande du réensemencement naturel et des éclaircies,
 Tronc : partie principale de la tige d'un arbre, généralement dénudée, située entre les racines et le houppier
 Tronçonnage : opération consistant à couper transversalement le tronc ou les branches d'un arbre abattu en billes.
 Tronçonneuse : scie motorisée et portable.</t>
@@ -1173,7 +1219,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Vidange : action d’enlever et de mettre bord de route le bois exploité sur une coupe.
 Vieille forêt : peuplement dominé par des arbres mûrs ou surannés relativement à l’abri des activités humaines. Le peuplement peut contenir plusieurs espèces végétales dont l’âge varie.
